--- a/ex3/Weather.xlsx
+++ b/ex3/Weather.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bogdan.roman\Documents\UiPath\ex3\ex3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8C77F5-D921-4B01-ADC8-9F4BE6759A41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C788C-4730-49C1-A810-B660FD29EEDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5208" xr2:uid="{E09F1FCE-7945-40AD-8B7A-6408263A6080}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -41,21 +41,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Friday 10 </t>
-  </si>
-  <si>
     <t>Sunny</t>
   </si>
   <si>
-    <t xml:space="preserve">Saturday 11 </t>
-  </si>
-  <si>
     <t>Partly Sunny</t>
   </si>
   <si>
-    <t xml:space="preserve">Sunday 12 </t>
-  </si>
-  <si>
     <t>Mostly Sunny</t>
   </si>
   <si>
@@ -74,34 +65,13 @@
     <t>Mostly Cloudy</t>
   </si>
   <si>
-    <t>32°</t>
-  </si>
-  <si>
-    <t>20°</t>
-  </si>
-  <si>
-    <t>30°</t>
-  </si>
-  <si>
-    <t>19°</t>
-  </si>
-  <si>
-    <t>31°</t>
-  </si>
-  <si>
-    <t>21°</t>
-  </si>
-  <si>
-    <t>33°</t>
-  </si>
-  <si>
-    <t>22°</t>
-  </si>
-  <si>
-    <t>34°</t>
-  </si>
-  <si>
-    <t>28°</t>
+    <t xml:space="preserve">Friday 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunday 19 </t>
   </si>
 </sst>
 </file>
@@ -455,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E9444D-22B7-4E98-8DAD-E567F4A52EC4}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -475,69 +447,69 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -545,30 +517,30 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -580,9 +552,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65918DD-12F4-4AB6-BFBE-3BCA5504C813}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -600,100 +580,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
